--- a/Excel/amplify_and_normalize.xlsx
+++ b/Excel/amplify_and_normalize.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9338502-5358-46F7-A2EB-0B66017BDC78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -241,230 +247,230 @@
     <t>If tracks with intentional peak differences have DC offset that needs correction, then you can and should use Normalize, but with "Normalize maximum amplitude to" unchecked.</t>
   </si>
   <si>
-    <t>वर्धित करा आणि सामान्य करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>वर्धित करा आणि सामान्य करा</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>एम्प्लिफाई आणि नॉर्मलाइझ करणे हे खूप समान प्रभाव आहेत, परंतु त्यांच्यात काही सूक्ष्म फरक आहेत. डीसी ऑफसेट दुरुस्त करण्यासाठी नॉर्मलाइझकडे स्वतःचा पर्याय आहे. एम्प्लिफाईचा लागू केलेला व्हॉल्यूम बदल प्रविष्ट करण्यासाठी आणि 0.0 डीबीपेक्षा अधिक वाढवून "क्लिपिंग" ला परवानगी देण्यासाठी स्वतःचा एक पर्याय आहे. एकाधिक ट्रॅक किंवा चॅनेलवर वापरले असल्यास दोन प्रभाव भिन्न पद्धतीने वागतात.</t>
-  </si>
-  <si>
     <t>सामग्री</t>
   </si>
   <si>
-    <t>1 स्तर बदल लागू करत आहे</t>
-  </si>
-  <si>
-    <t>2 डीसी ऑफसेट सुधारणेसह सामान्यीकरण वापरणे</t>
-  </si>
-  <si>
-    <t>3 एकाधिक ट्रॅक किंवा चॅनेलवर एम्प्लिफाई आणि सामान्यीकरण दरम्यान फरक</t>
-  </si>
-  <si>
-    <t>1.१ एकाधिक ऑडिओ ट्रॅक वर्धित करा</t>
-  </si>
-  <si>
-    <t>2.२ एकाधिक ऑडिओ ट्रॅक किंवा चॅनेल सामान्य करा</t>
-  </si>
-  <si>
-    <t>3.3 व्हिज्युअल तुलना</t>
-  </si>
-  <si>
-    <t>4 फायदे आणि तोटे</t>
-  </si>
-  <si>
-    <t>1.१ विस्तारित करण्याचे फायदे</t>
-  </si>
-  <si>
-    <t>2.२ सामान्य करण्याचे फायदे</t>
-  </si>
-  <si>
-    <t>3.3 एम्प्लिफा वापरु नका तेव्हा</t>
-  </si>
-  <si>
-    <t>4.4 नॉर्मलाइझ वापरु नका तेव्हा</t>
-  </si>
-  <si>
     <t>स्तर बदल लागू करत आहे</t>
   </si>
   <si>
-    <t>नॉर्मलाइझ इफेक्ट निवडलेल्या स्तरावर "जास्तीत जास्त मोठेपणाचे सामान्यकरण" करण्याचा पर्याय देते.</t>
-  </si>
-  <si>
-    <t>एम्प्लिफाई इफेक्ट दोन परस्परावलंबित पर्याय ऑफर करतो (म्हणजे एक बदलल्याने दुसर्‍याला बदलते):</t>
-  </si>
-  <si>
-    <t>"एम्प्लिफिकेशन (डीबी)" आणि "नवीन पीक एम्प्लिट्यूड (डीबी)". स्लाइडरचा वापर मजकूर इनपुट प्रविष्ट न करता प्रवर्धन पातळी निवडण्यासाठी देखील केला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>एका मोनो ट्रॅकसाठी, हेच सांगण्याचे मुख्यतः भिन्न मार्ग आहेत. जर आपल्याकडे एक ट्रॅक असेल ज्याचे शिखर मोठेपणा -6 डीबी आहे (+0.5 ते -0.5 अनुलंब स्केलवर) असेल तर शिखर 0 डीबी पर्यंत आणण्याचे तीन मार्ग आहेत (+1.0 ते -1.0 अनुलंब प्रमाणात).</t>
-  </si>
-  <si>
-    <t>-0.0 डीबी पर्यंत "जास्तीत जास्त मोठेपणा सामान्य करा"</t>
-  </si>
-  <si>
-    <t>"एम्प्लीफिकेशन (डीबी)" वर 6 डीबी सेट करा</t>
-  </si>
-  <si>
-    <t>-0.0 डीबी वर "नवीन पीक एम्प्लिट्यूड (डीबी)" सेट करा</t>
-  </si>
-  <si>
-    <t>-6 डीबी ट्रॅकसह, एम्प्लिफाई नेहमी वरील "एम्प्लिफिकेशन (डीबी)" आणि "न्यू पीक एम्प्लिट्यूड (डीबी)" व्हॅल्यूज मध्ये डीफॉल्ट असेल कारण ते नेहमी ०.० डीबीमध्ये वाढवते.</t>
-  </si>
-  <si>
-    <t>नॉर्मलाइझ मधील डीसी ऑफसेट करेक्शन लागू न केल्यास, यापैकी प्रत्येक पद्धती अगदी तशाच गोष्टी करेल आणि परिणामी ऑडिओ एकसारखे असेल.</t>
-  </si>
-  <si>
     <t>डीसी ऑफसेट सुधारणेसह सामान्यीकरण वापरणे</t>
   </si>
   <si>
-    <t>डीसी ऑफसेट असल्यास आपण नेहमी डीसी ऑफसेट सुधारणा वापरली पाहिजे. कमीतकमी ऑफसेट ही सामान्य गोष्ट आहे, परंतु मोठ्या प्रमाणात (जसे की आकृती 1 मध्ये) सामान्यत: असे होऊ नये.</t>
-  </si>
-  <si>
-    <t>आकृती 1</t>
-  </si>
-  <si>
-    <t>आकृती 1 मध्ये आपण पाहू शकता की वरचा ट्रॅक क्षैतिज रेषेत मध्यभागी नाही तर त्यापेक्षा वर आहे. हे "ऑफ-सेट" आहे. निवडलेल्या "कोणत्याही डीसी ऑफसेट काढा" सह नॉर्मलाइझ इफेक्टचा वापर करून आम्ही हा दोष सुधारू शकतो. या निवडलेल्यासह सामान्यीकरण (परंतु "नॉर्मलाइझ कमाल मोठेपणासह" निवडले नाही) हे ऑफसेटमध्ये मोठेपणामध्ये इतर कोणतेही बदल न करता दुरुस्त करेल - परिणाम कमी ट्रॅकसारखे दिसेल.</t>
-  </si>
-  <si>
-    <t>आकृती 2</t>
-  </si>
-  <si>
-    <t>आकृती 2 मधील अप्पर ट्रॅकमध्ये आम्ही एम्प्लिफा लागू केल्यावर आकृती 1 पासून ऑफसेट अप्पर ट्रॅक दर्शवितो. खालच्या ट्रॅकमध्ये आपल्याला दिसेल की डीसी ऑफसेट सुधारणेसह सामान्यीकरण लागू केल्या नंतर एम्प्लिफाइड वेव्हफॉर्म आहे.</t>
-  </si>
-  <si>
-    <t>दोन्ही प्रकरणांमध्ये जास्तीत जास्त शिखर मोठेपणा 0.0 डीबी वर सेट केले गेले, परंतु लक्षात घ्या की वरच्या (एम्प्लिफाइड) ट्रॅकमध्ये परिणामी वेव्हफॉर्म खालच्या (सामान्यीकृत) ट्रॅकपेक्षा लक्षणीय लहान आहे. हे देखील लक्षात घ्या की डीसी ऑफसेट आकृती 1 मधील एम्प्लिफाइंग नंतर अधिक खराब झाली आहे - ऑफसेट देखील वर्धित केले गेले आहे.</t>
-  </si>
-  <si>
-    <t>एम्प्लिफाइड वेव्हफॉर्म लहान आहे याचे कारण म्हणजे डीसी ऑफसेटद्वारे आडव्या रेषेवरील पॉझिटिव्ह पीक्स अनुलंबरित्या सरकले गेले आहेत, तर पॉझिटिव्ह पीक ०.० डीबी (वर्टिकल स्केलवर +१.०) वर असूनही, खाली नकारात्मक शिखर आहे क्षैतिज -1.0 पासून बरेच दूर आहे.</t>
-  </si>
-  <si>
-    <t>जर आपले रेकॉर्डिंग नियमितपणे लक्षात घेण्यायोग्य डीसी ऑफसेट तयार करीत असेल तर हे आपल्या सिस्टममधील दोष दर्शवते, सहसा ऑडिओ इंटरफेस किंवा ड्राइव्हर्स् सह. सदोष ध्वनी स्त्रोत कनेक्ट करणे देखील या समस्येस कारणीभूत ठरू शकते. हे मुद्दे ड्राइव्हर्स अद्यतनित करून किंवा हार्डवेअरचे निराकरण करून आवश्यकतेनुसार दुरुस्त केले पाहिजेत.</t>
-  </si>
-  <si>
-    <t>अंगभूत आवाज इनपुटवरून रेकॉर्डिंग करताना नवीन विंडोज पीसींमध्ये डीसी ऑफसेट रद्दीकरण वैशिष्ट्य असू शकते; डीसी ऑफसेट पृष्ठ पहा.</t>
-  </si>
-  <si>
-    <t>एकाधिक ट्रॅक किंवा चॅनेलवर एम्प्लिफाई आणि नॉर्मलाइझ दरम्यान फरक</t>
-  </si>
-  <si>
-    <t>एकाधिक ऑडिओ ट्रॅक वर्धित करा</t>
-  </si>
-  <si>
-    <t>आपण एकाधिक ट्रॅक निवडल्यास आणि एम्प्लिफा प्रभाव लागू केल्यास सर्व ऑडिओ ट्रॅक समान प्रमाणात वाढविले जातील.</t>
-  </si>
-  <si>
-    <t>उदाहरणार्थ, आपण "एम्प्लीफिकेशन (डीबी)" मध्ये 3 डीबी प्रविष्ट केल्यास सर्व ऑडिओ ट्रॅक त्यांच्या मूळ स्तराकडे दुर्लक्ष करून 3 डीबीने वाढविले जातील. ट्रॅक दरम्यान जे काही पीक व्हॉल्यूम फरक आहेत (किंवा ट्रॅकमधील चॅनेल) जतन केले जातील.</t>
-  </si>
-  <si>
-    <t>विशेषत: एम्प्लिफाई नेहमी ट्रॅकमध्ये स्टिरिओ जोडीचा डावा-उजवा शिल्लक संरक्षित करते.</t>
-  </si>
-  <si>
-    <t>एकाधिक ऑडिओ ट्रॅक किंवा चॅनेल सामान्य करा</t>
-  </si>
-  <si>
-    <t>सामान्यीकरण प्रभाव स्टिरिओ जोडीच्या चॅनेलवर वैकल्पिकरित्या समान रीतीने कार्य करू शकतो (एम्प्लिफाइ करते तसे) निवडलेल्या ट्रॅकमधील सर्व स्टीरिओ चॅनेल जोड्यांना डावे-उजवीकडे संतुलित ठेवते.</t>
-  </si>
-  <si>
-    <t>एक नवीन चेकबॉक्स जोडला गेला आहे: "स्टीरिओ चॅनेल स्वतंत्रपणे सामान्य करा" जे डीफॉल्टनुसार "बंद" वर सेट केले जाते.</t>
-  </si>
-  <si>
-    <t>जर हा चेकबॉक्स अनचेक केला नसेल तर सर्व निवडलेले ऑडिओ ट्रॅक समान शिखर पातळीवर सामान्य केले जातील.</t>
-  </si>
-  <si>
-    <t>जर हा चेकबॉक्स चेक केला असेल तर निवडलेल्या ट्रॅकमधील सर्व ऑडिओ चॅनेल स्वतंत्रपणे समान शिखर पातळीवर सामान्य केली जातील.</t>
-  </si>
-  <si>
     <t>दृश्य तुलना</t>
   </si>
   <si>
-    <t>स्टीरिओ ट्रॅकवर ही तुलना पाहू. आकृती 3 मध्ये खाली दोन स्टीरिओ ट्रॅक आहेत - त्या प्रत्येकाकडे डावे आणि उजवे दोन ऑडिओ चॅनेल आहेत. लक्षात घ्या की प्रत्येक स्टिरिओ जोडीच्या डाव्या (वरच्या) वाहिनीचे शिखर मोठेपणा उजवीकडे (खालच्या) चॅनेलच्या शिखर मोठेपणापेक्षा थोडा मोठे आहे.</t>
-  </si>
-  <si>
-    <t>आकृती 3</t>
-  </si>
-  <si>
-    <t>आकृती In मध्ये वरच्या ट्रॅकचे विस्तार ०.० डीबीपर्यंत वाढवल्यानंतर आणि खाली असलेल्या ट्रॅकला ०.B डीबीचे सामान्यीकरणानंतर (स्वतंत्रपणे स्टीरिओ वाहिन्यांसह सामान्यीकरण करणे; आपण "स्टीरिओ वाहिन्या स्वतंत्रपणे सामान्य बनविणे" निवडू शकता किंवा नाही) .</t>
-  </si>
-  <si>
-    <t>आकृती 4</t>
-  </si>
-  <si>
-    <t>लक्षात घ्या की वरील स्टिरीओ ट्रॅकमध्ये डावे आणि उजवे दोन्ही चॅनेल समान प्रमाणात (सुमारे 1.0 डीबी) वाढविले गेले आहेत. केवळ डाव्या चॅनेलचे परिणामी पीक मूल्य 0.0 डीबी असते, कारण उजवे चॅनेल कमी मोठेपणाचे होते. खालच्या ट्रॅकमध्ये, दोन्ही चॅनेलला 0.0 डीबीचे परिणामी पीक मूल्य देण्यासाठी नॉर्मलाइझने प्रत्येक चॅनेलवर स्वतंत्रपणे प्रक्रिया केली आहे.</t>
-  </si>
-  <si>
     <t>फायदे आणि तोटे</t>
   </si>
   <si>
-    <t>एम्प्लिफाचे फायदे</t>
-  </si>
-  <si>
-    <t>एक किंवा अधिक ट्रॅक किंवा चॅनेलची पातळी समान प्रमाणात बदलून त्या दरम्यानची शिल्लक राखून ठेवा</t>
-  </si>
-  <si>
-    <t>द्रुत प्रवर्धन समायोजनासाठी स्लायडर</t>
-  </si>
-  <si>
-    <t>क्लिपिंगशिवाय लाऊडस्ट ट्रॅक किंवा चॅनेल जास्तीत जास्त व्हॉल्यूमवर सेट करण्यासाठी आवश्यक असलेल्या एम्प्लिफिकेशनची स्वयंचलितपणे गणना करते</t>
-  </si>
-  <si>
-    <t>क्लिपिंगला अनुमती देण्यासाठी देखील सेट केले जाऊ शकते</t>
-  </si>
-  <si>
-    <t>उदाहरणार्थ, कित्येक ट्रॅकची पातळी 2 डीबीने वाढविण्यासाठी, एम्प्लिफा प्रभाव वापरा आणि "एम्प्लिफिकेशन (डीबी)" बॉक्समध्ये "2" (कोटेशिवाय) प्रविष्ट करा.</t>
-  </si>
-  <si>
     <t>सामान्यीकरणाचे फायदे</t>
   </si>
   <si>
     <t>डीसी ऑफसेट बरोबर करा</t>
   </si>
   <si>
-    <t>त्यांच्यामधील कोणतेही स्तर असमानता काढून समान शिखर पातळीवर अनेक ऑडिओ ट्रॅक किंवा चॅनेल समायोजित करा</t>
-  </si>
-  <si>
-    <t>स्टीरिओ चॅनेल स्वतंत्ररित्या न ठेवता जोड्या म्हणून (चॅनेलमधील समतोल राखून ठेवणे) सामान्य करण्याचा पर्याय आहे.</t>
-  </si>
-  <si>
-    <t>0 डीबीच्या क्लिपिंग स्तराच्या वरील सामान्यीकरण अनुमत नाही</t>
-  </si>
-  <si>
-    <t>उदाहरणार्थ, आपण स्टिरिओ रेकॉर्डिंग (एलपी किंवा टेप रेकॉर्डिंगसह सामान्य परिस्थिती) चुकून दुसर्‍या वाहिन्यापेक्षा एक चॅनेल रेकॉर्ड केले असल्यास, चॅनेल स्वतंत्रपणे सामान्य करणे योग्य शिल्लक पुनर्संचयित करण्यासाठी बराच काळ जाईल. लक्षात घ्या कारण सामान्यीकरण "पीक" ऐवजी "सरासरी" स्तरावर आधारित आहे, यामुळे प्रक्रिया केलेल्या ट्रॅक प्रत्यक्षात तितकाच मोठा आवाज होऊ शकत नाहीत.</t>
-  </si>
-  <si>
-    <t>एम्प्लिफा वापरु नका तेव्हा</t>
-  </si>
-  <si>
-    <t>आपल्या ऑडिओमध्ये डीसी ऑफसेट असल्यास, आपण ते ऑफसेट दुरुस्त करण्यासाठी सामान्यीकरण वापरावे.</t>
-  </si>
-  <si>
-    <t>आपण मॅक्रो लागू करत असल्यास आणि एखाद्या विशिष्ट स्तरावर ट्रॅक किंवा फायली आणू इच्छित असल्यास त्याऐवजी सामान्यीकरण वापरा. "न्यू पीक एम्प्लिट्यूड (डीबी)" 0 डीबी वर सेट केले असल्यास आणि त्या बॉक्समधील कोणत्याही निवडलेल्या रकमेचे मोठेपणा सेट करणार नाही तर मॅक्रोमध्ये एम्प्लिफाई ट्रॅक किंवा शक्य तितक्या मोठ्या प्रमाणात फाइल बनविणार नाही. एम्प्लीफाईव्ह स्वयंचलितपणे लागू केले जात असल्याने ते "प्रमाण" (पॅरामीटर) मध्ये जतन केलेली "एम्प्लिफिकेशन (डीबी)" रक्कमच लागू करू शकते.</t>
-  </si>
-  <si>
-    <t>नॉर्मलाइझ वापरु नका तेव्हा</t>
-  </si>
-  <si>
-    <t>एकाधिक ट्रॅकमध्ये पीक पातळीमध्ये हेतुपुरस्सर फरक असल्यास आपण त्यापैकी कधीही सामान्य करू नये. त्यांच्यातील सापेक्ष संतुलन टिकवण्याचा एकमेव मार्ग म्हणजे त्या सर्वांना एक गट म्हणून निवडणे आणि त्यांचे विस्तार करणे म्हणजे ते सर्व समान प्रमाणात वाढविले जातात.</t>
-  </si>
-  <si>
-    <t>आपण * स्टिरिओ ट्रॅकचे चॅनेल शिल्लक बदलल्याशिवाय त्यांना सामान्य बनवू शकता, परंतु केवळ जर अ) तर स्टीरिओ ट्रॅक डाव्या आणि उजवीकडे विभागला गेला नाही आणि बी) "स्टीरिओ चॅनेल स्वतंत्रपणे सामान्यीकरण करा" अनचेक केले जाईल.</t>
-  </si>
-  <si>
-    <t>जर हेतुपुरस्सर शिखर फरक असलेल्या ट्रॅकमध्ये डीसी ऑफसेट असेल ज्यास दुरुस्ती आवश्यक असेल तर आपण सामान्यीकृत करू शकता आणि वापरू शकता परंतु "नॉर्मलाइझ टू जास्तीत जास्त मोठेपणा" अनचेक केले जाऊ शकते.</t>
+    <t>वर्धित करा आणि सामान्य करा - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>वर्धित करा आणि सामान्य करणे हे खूप समान प्रभाव आहेत, परंतु त्यांच्यात काही सूक्ष्म फरक आहेत. डीसी ऑफसेट दुरुस्त करण्यासाठी सामान्य करण्याकडे स्वतःचा पर्याय आहे. वर्धित करण्याचा लागू केलेला आवाज बदल प्रविष्ट करण्यासाठी आणि ०.० डीबीपेक्षा अधिक वाढवून "फीत" ला परवानगी देण्यासाठी स्वतःचा एक पर्याय आहे. एकाधिक गीतपट्टा किंवा वाहिनीवर वापरले असल्यास दोन प्रभाव भिन्न पद्धतीने वागतात.</t>
+  </si>
+  <si>
+    <t>एक किंवा अधिक गीतपट्टा किंवा वाहिनीची पातळी समान प्रमाणात बदलून त्या दरम्यानची शिल्लक राखून ठेवा</t>
+  </si>
+  <si>
+    <t>स्टीरिओ वाहिनी स्वतंत्ररित्या न ठेवता जोड्या म्हणून (वाहिनीमधील समतोल राखून ठेवणे) सामान्य करण्याचा पर्याय आहे.</t>
+  </si>
+  <si>
+    <t>एकाधिक ध्वनी गीतपट्टा वर्धित करा</t>
+  </si>
+  <si>
+    <t>एकाधिक ध्वनी गीतपट्टा किंवा वाहिनी सामान्य करा</t>
+  </si>
+  <si>
+    <t>जर हा चेकबॉक्स अनचेक केला नसेल तर सर्व निवडलेले ध्वनी गीतपट्टा समान शिखर पातळीवर सामान्य केले जातील.</t>
+  </si>
+  <si>
+    <t>जर हा चेकबॉक्स चेक केला असेल तर निवडलेल्या गीतपट्टामधील सर्व ध्वनी वाहिनी स्वतंत्रपणे समान शिखर पातळीवर सामान्य केली जातील.</t>
+  </si>
+  <si>
+    <t>त्यांच्यामधील कोणतेही स्तर असमानता काढून समान शिखर पातळीवर अनेक ध्वनी गीतपट्टा किंवा वाहिनी समायोजित करा</t>
+  </si>
+  <si>
+    <t>आपल्या ध्वनीमध्ये डीसी ऑफसेट असल्यास, आपण ते ऑफसेट दुरुस्त करण्यासाठी सामान्यीकरण वापरावे.</t>
+  </si>
+  <si>
+    <t>३.३ दृश्यमान तुलना</t>
+  </si>
+  <si>
+    <t>१ स्तर बदल लागू करत आहे</t>
+  </si>
+  <si>
+    <t>२ डीसी ऑफसेट सुधारणेसह सामान्यीकरण वापरणे</t>
+  </si>
+  <si>
+    <t>३ एकाधिक गीतपट्टा किंवा वाहिनीवर वर्धीकरण आणि सामान्यीकरण दरम्यान फरक</t>
+  </si>
+  <si>
+    <t>१.१ एकाधिक ध्वनी गीतपट्टा वर्धित करा</t>
+  </si>
+  <si>
+    <t>२.२ एकाधिक ध्वनी गीतपट्टा किंवा वाहिनी सामान्य करा</t>
+  </si>
+  <si>
+    <t>४ फायदे आणि तोटे</t>
+  </si>
+  <si>
+    <t>४.४ सामान्य करून वापरु नका तेव्हा</t>
+  </si>
+  <si>
+    <t>सामान्य करा प्रभाव निवडलेल्या स्तरावर "जास्तीत जास्त मोठेपणाचे सामान्यकरण" करण्याचा पर्याय देते.</t>
+  </si>
+  <si>
+    <t>वर्धित करा प्रभाव दोन परस्परावलंबित पर्याय देतो(म्हणजे एक बदलल्याने दुसर्‍याला बदलते):</t>
+  </si>
+  <si>
+    <t>"प्रवर्धन (डीबी)" आणि "नवीन उच्च मोठेपणा (डीबी)". घसारपट्टीचा वापर मजकूर माहिती पुरवणे प्रविष्ट न करता प्रवर्धन पातळी निवडण्यासाठी देखील केला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>एका मोनो गीतपट्टासाठी, हेच सांगण्याचे मुख्यतः भिन्न मार्ग आहेत. जर आपल्याकडे एक गीतपट्टा असेल ज्याचे शिखर मोठेपणा -६ डीबी आहे (+०.५ ते -०.५ अनुलंब स्केलवर) असेल तर शिखर 0 डीबी पर्यंत आणण्याचे तीन मार्ग आहेत (+१.० ते -१.० अनुलंब प्रमाणात).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -०.० डीबी पर्यंत "जास्तीत जास्त मोठेपणा सामान्य करा"</t>
+  </si>
+  <si>
+    <t>एकाधिक गीतपट्टामध्ये उच्च पातळीमध्ये हेतुपुरस्सर फरक असल्यास आपण त्यापैकी कधीही सामान्य करू नये. त्यांच्यातील सापेक्ष संतुलन टिकवण्याचा एकमेव मार्ग म्हणजे त्या सर्वांना एक गट म्हणून निवडणे आणि त्यांचे विस्तार करणे म्हणजे ते सर्व समान प्रमाणात वाढविले जातात.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -६ डीबी गीतपट्टासह, वर्धन नेहमी वरील "प्रवर्धन (डीबी)" आणि "नवीन उच्च मोठेपणा (डीबी)" मुल्ये मध्ये पूर्वनियोजित असेल कारण ते नेहमी ०.० डीबीमध्ये वाढवते.</t>
+  </si>
+  <si>
+    <t>सामान्य करा मधील डीसी ऑफसेट सुधारणा लागू न केल्यास, यापैकी प्रत्येक पद्धती अगदी तशाच गोष्टी करेल आणि परिणामी ध्वनी एकसारखे असेल.</t>
+  </si>
+  <si>
+    <t>डीसी ऑफसेट असल्यास आपण नेहमी डीसी ऑफसेट सुधारणा वापरली पाहिजे. कमीतकमी ऑफसेट ही सामान्य गोष्ट आहे, परंतु मोठ्या प्रमाणात (जसे की आकृती १ मध्ये) सामान्यत: असे होऊ नये.</t>
+  </si>
+  <si>
+    <t>आकृती १</t>
+  </si>
+  <si>
+    <t>आकृती १ मध्ये आपण पाहू शकता की वरचा गीतपट्टा क्षैतिज रेषेत मध्यभागी नाही तर त्यापेक्षा वर आहे. हे "ऑफ-सेट" आहे. निवडलेल्या "कोणत्याही डीसी ऑफसेट काढा" सह सामान्य करा प्रभावचा वापर करून आम्ही हा दोष सुधारू शकतो. या निवडलेल्यासह सामान्यीकरण (परंतु "सामान्य करणे कमाल मोठेपणासह" निवडले नाही) हे ऑफसेटमध्ये मोठेपणामध्ये इतर कोणतेही बदल न करता दुरुस्त करेल - परिणाम कमी गीतपट्टासारखे दिसेल.</t>
+  </si>
+  <si>
+    <t>आकृती २</t>
+  </si>
+  <si>
+    <t>आकृती २ मधील वरच्या गीतपट्टामध्ये आम्ही वर्धित केलेले लागू केल्यावर आकृती १ पासून ऑफसेट वरच्या गीतपट्टा दर्शवितो. खालच्या गीतपट्टामध्ये आपल्याला दिसेल की डीसी ऑफसेट सुधारणेसह सामान्यीकरण लागू केल्या नंतर वर्धित झालेले तरंग आहे.</t>
+  </si>
+  <si>
+    <t>दोन्ही प्रकरणांमध्ये जास्तीत जास्त शिखर मोठेपणा ०.० डीबी वर स्थापित केले गेले, परंतु लक्षात घ्या की वरच्या (वर्धित केलेल्या) गीतपट्टामध्ये परिणामी तरंग खालच्या (सामान्यीकृत) गीतपट्टापेक्षा लक्षणीय लहान आहे. हे देखील लक्षात घ्या की डीसी ऑफसेट आकृती १ मधील वाढीत होणारे नंतर अधिक खराब झाली आहे - ऑफसेट देखील वर्धित केले गेले आहे.</t>
+  </si>
+  <si>
+    <t>वर्धित झालेली तरंग लहान आहे याचे कारण म्हणजे डीसी ऑफसेटद्वारे आडव्या रेषेवरील सकारात्मक उच्च्स अनुलंबरित्या सरकले गेले आहेत, तर धन उच्च ०.० डीबी (वर्टिकल स्केलवर +१.०) वर असूनही, खाली नकारात्मक शिखर आहे क्षैतिज -१.० पासून बरेच दूर आहे.</t>
+  </si>
+  <si>
+    <t>जर आपले ध्वनिमुद्रण नियमितपणे लक्षात घेण्यायोग्य डीसी ऑफसेट तयार करीत असेल तर हे आपल्या प्रणालीमधील दोष दर्शवते, सहसा ध्वनी इंटरफेस किंवा ड्राइव्हर्स् सह. सदोष ध्वनी स्त्रोत जोडणे देखील या समस्येस कारणीभूत ठरू शकते. हे मुद्दे ड्राइव्हर्स अद्यतनित करून किंवा हार्डवेअरचे निराकरण करून आवश्यकतेनुसार दुरुस्त केले पाहिजेत.</t>
+  </si>
+  <si>
+    <t>अंगभूत आवाज माहिती पुरवण्यावरून ध्वनिमुद्रण करताना नवीन विंडोज पीसींमध्ये डीसी ऑफसेट रद्दीकरण वैशिष्ट्य असू शकते; डीसी ऑफसेट पृष्ठ पहा.</t>
+  </si>
+  <si>
+    <t>एकाधिक गीतपट्टा किंवा वाहिनीवर वर्धन केलेले आणि सामान्य केलेले दरम्यान फरक</t>
+  </si>
+  <si>
+    <t>आपण एकाधिक गीतपट्टा निवडल्यास आणि वर्धन प्रभाव लागू केल्यास सर्व ध्वनी गीतपट्टा समान प्रमाणात वाढविले जातील.</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, आपण "प्रवर्धन (डीबी)" मध्ये ३ डीबी प्रविष्ट केल्यास सर्व ध्वनी गीतपट्टा त्यांच्या मूळ स्तराकडे दुर्लक्ष करून ३ डीबीने वाढविले जातील. गीतपट्टा दरम्यान जे काही उच्च आवाज फरक आहेत (किंवा गीतपट्टामधील वाहिनी) जतन केले जातील.</t>
+  </si>
+  <si>
+    <t>विशेषत: वर्धन नेहमी गीतपट्टामध्ये स्टिरिओ जोडीचा डावा-उजवा शिल्लक संरक्षित करते.</t>
+  </si>
+  <si>
+    <t>सामान्यीकरण प्रभाव स्टिरिओ जोडीच्या वाहिनीवर वैकल्पिकरित्या समान रीतीने कार्य करू शकतो वर्धन करते तसे) निवडलेल्या गीतपट्टामधील सर्व स्टीरिओ वाहिनी जोड्यांना डावे-उजवीकडे संतुलित ठेवते.</t>
+  </si>
+  <si>
+    <t>एक नवीन चेकबॉक्स जोडला गेला आहे: "स्टीरिओ वाहिनी स्वतंत्रपणे सामान्य करा" जे पूर्वनियोजननुसार "बंद" वर स्थापित केले जाते.</t>
+  </si>
+  <si>
+    <t>स्टीरिओ गीतपट्टावर ही तुलना पाहू. आकृती ३ मध्ये खाली दोन स्टीरिओ गीतपट्टा आहेत - त्या प्रत्येकाकडे डावे आणि उजवे दोन ध्वनी वाहिनी आहेत. लक्षात घ्या की प्रत्येक स्टिरिओ जोडीच्या डाव्या (वरच्या) वाहिनीचे शिखर मोठेपणा उजवीकडे (खालच्या) वाहिनीच्या शिखर मोठेपणापेक्षा थोडा मोठे आहे.</t>
+  </si>
+  <si>
+    <t>आकृती ३</t>
+  </si>
+  <si>
+    <t>आकृती ४</t>
+  </si>
+  <si>
+    <t>लक्षात घ्या की वरील स्टिरीओ गीतपट्टामध्ये डावे आणि उजवे दोन्ही वाहिनी समान प्रमाणात (सुमारे १.० डीबी) वाढविले गेले आहेत. केवळ डाव्या वाहिनीचे परिणामी उच्च मूल्य ०.० डीबी असते, कारण उजवे वाहिनी कमी मोठेपणाचे होते. खालच्या गीतपट्टामध्ये, दोन्ही वाहिनीला ०.० डीबीचे परिणामी उच्च मूल्य देण्यासाठी सामान्य करण्याने प्रत्येक वाहिनीवर स्वतंत्रपणे प्रक्रिया केली आहे.</t>
+  </si>
+  <si>
+    <t>वर्धनचे फायदे</t>
+  </si>
+  <si>
+    <t>द्रुत प्रवर्धन समायोजनासाठी घसरपट्टी</t>
+  </si>
+  <si>
+    <t>फीतशिवाय सर्वात मोठा आवाजाचे गीतपट्टा किंवा वाहिनी जास्तीत जास्त आवाजावर स्थापित करण्यासाठी आवश्यक असलेल्या प्रवर्धनची स्वयंचलितपणे गणना करते</t>
+  </si>
+  <si>
+    <t>फीतला अनुमती देण्यासाठी देखील स्थापित केले जाऊ शकते</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, कित्येक गीतपट्टाची पातळी २ डीबीने वाढविण्यासाठी, वर्धन प्रभाव वापरा आणि "प्रवर्धन (डीबी)" बॉक्समध्ये "2" (कोटेशिवाय) प्रविष्ट करा.</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, आपण स्टिरिओ ध्वनिमुद्रण (एलपी किंवा टेप ध्वनिमुद्रणसह सामान्य परिस्थिती) चुकून दुसर्‍या वाहिन्यापेक्षा एक वाहिनी मुद्रण केले असल्यास, वाहिनी स्वतंत्रपणे सामान्य करणे योग्य शिल्लक पुनर्संचयित करण्यासाठी बराच काळ जाईल. लक्षात घ्या कारण सामान्यीकरण "उच्च" ऐवजी "सरासरी" स्तरावर आधारित आहे, यामुळे प्रक्रिया केलेल्या गीतपट्टा प्रत्यक्षात तितकाच मोठा आवाज होऊ शकत नाहीत.</t>
+  </si>
+  <si>
+    <t>वर्धन वापरु नका तेव्हा</t>
+  </si>
+  <si>
+    <t>आपण मॅक्रो लागू करत असल्यास आणि एखाद्या विशिष्ट स्तरावर गीतपट्टा किंवा फायली आणू इच्छित असल्यास त्याऐवजी सामान्यीकरण वापरा. "नवीन उच्च मोठेपणा (डीबी)" ० डीबी वर सेट केले असल्यास आणि त्या बॉक्समधील कोणत्याही निवडलेल्या रकमेचे मोठेपणा सेट करणार नाही तर मॅक्रोमध्ये एम्प्लिफाई गीतपट्टा किंवा शक्य तितक्या मोठ्या प्रमाणात धारिका बनविणार नाही. वर्धन स्वयंचलितपणे लागू केले जात असल्याने ते "प्रमाण" (मापदंड) मध्ये जतन केलेली "प्रवर्धन (डीबी)" रक्कमच लागू करू शकते.</t>
+  </si>
+  <si>
+    <t>सामान्य करणे वापरु नका तेव्हा</t>
+  </si>
+  <si>
+    <t>जर हेतुपुरस्सर शिखर फरक असलेल्या गीतपट्टामध्ये डीसी ऑफसेट असेल ज्यास दुरुस्ती आवश्यक असेल तर आपण सामान्यीकृत करू शकता आणि वापरू शकता परंतु "सामान्य करणे ते जास्तीत जास्त मोठेपणा" अनचेक केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>४.१ विस्तारित करण्याचे फायदे</t>
+  </si>
+  <si>
+    <t>४.२ सामान्य करण्याचे फायदे</t>
+  </si>
+  <si>
+    <t>४.३ वर्धित करून वापरु नका तेव्हा</t>
+  </si>
+  <si>
+    <t>"प्रवर्धन (डीबी)" वर ६ डीबी स्थापित करा</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -०.० डीबी वर "नवीन उच्च मोठेपणा (डीबी)" स्थापित करा</t>
+  </si>
+  <si>
+    <t>आकृती ४ मध्ये वरच्या गीतपट्टाचे विस्तार ०.० डीबीपर्यंत वाढवल्यानंतर आणि खाली असलेल्या गीतपट्टाला ०.० डीबीचे सामान्यीकरणानंतर (स्वतंत्रपणे स्टीरिओ वाहिन्यांसह सामान्यीकरण करणे; आपण "स्टीरिओ वाहिन्या स्वतंत्रपणे सामान्य बनविणे" निवडू शकता किंवा नाही) .</t>
+  </si>
+  <si>
+    <t>० डीबीच्या फीत स्तराच्या वरील सामान्यीकरण अनुमत नाही</t>
+  </si>
+  <si>
+    <t>आपण स्टिरिओ गीतपट्टाचे वाहिनी शिल्लक बदलल्याशिवाय त्यांना सामान्य बनवू शकता, परंतु केवळ जर अ) तर स्टीरिओ गीतपट्टा डाव्या आणि उजवीकडे विभागला गेला नाही आणि बी) "स्टीरिओ वाहिनी स्वतंत्रपणे सामान्यीकरण करा" अनचेक केले जाईल.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,10 +522,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,6 +539,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -573,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,9 +625,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,6 +677,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,822 +870,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="83" style="3" customWidth="1"/>
+    <col min="3" max="3" width="97.77734375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
-        <v>147</v>
+      <c r="C74" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
